--- a/FloodControlCalculation/溃坝洪水.xlsx
+++ b/FloodControlCalculation/溃坝洪水.xlsx
@@ -5,41 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24469\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1418\Desktop\堰塞湖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61E9CE8-078A-432A-8AFB-CC40C893D1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429D532E-EAC3-460F-A226-7E5D3FE63275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{38BA7D3E-5736-44C3-A3C0-8153E6776021}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{38BA7D3E-5736-44C3-A3C0-8153E6776021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="溃坝洪水" sheetId="7" r:id="rId2"/>
     <sheet name="水位库容" sheetId="9" r:id="rId3"/>
     <sheet name="水位泄量曲线" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>大华桥</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大华桥电站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间/h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,7 +119,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下泄流量</t>
+    <t>库容/亿m³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库流量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,7 +135,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库容/亿m³</t>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下泄流量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3162,67 +3172,67 @@
             <c:numRef>
               <c:f>水位库容!$L$2:$L$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>48.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>293</c:v>
+                  <c:v>280.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>656</c:v>
+                  <c:v>634.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1173</c:v>
+                  <c:v>1137.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1943</c:v>
+                  <c:v>1908.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3010</c:v>
+                  <c:v>2929.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4397</c:v>
+                  <c:v>4319.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6208</c:v>
+                  <c:v>6151.28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8333</c:v>
+                  <c:v>8285.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10813</c:v>
+                  <c:v>10743.74</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13716</c:v>
+                  <c:v>13677.17</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>16940</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20495</c:v>
+                  <c:v>20457.560000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22095</c:v>
+                  <c:v>22100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22933</c:v>
+                  <c:v>22867.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24465</c:v>
+                  <c:v>24418.05</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25353</c:v>
+                  <c:v>25363.79</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27918</c:v>
+                  <c:v>27934.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28815</c:v>
+                  <c:v>28854.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3403,7 +3413,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3646,11 +3656,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>大华桥</a:t>
+              <a:t>苗尾</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41388888888888892"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3715,126 +3733,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>水位泄量曲线!$B$2:$B$19</c:f>
+              <c:f>水位库容!$P$29:$P$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>142.63</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>403.41</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>741.12</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1141.03</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1594.63</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2096.1999999999998</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2641.51</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3227.31</c:v>
+                  <c:v>5.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3850.96</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4510.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5203.49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5928.94</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6685.29</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7471.32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8285.9500000000007</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9128.2000000000007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9997.2099999999991</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10892.16</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>水位泄量曲线!$D$2:$D$19</c:f>
+              <c:f>水位库容!$Q$29:$Q$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1462</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1463</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1464</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1465</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1466</c:v>
+                  <c:v>1340</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1467</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1468</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1469</c:v>
+                  <c:v>1398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1470</c:v>
+                  <c:v>1408</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1471</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1472</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1473</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1474</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1475</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1476</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1477</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1478</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1479</c:v>
+                  <c:v>1414.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3842,7 +3812,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C85-4378-9977-26CAA52B5F4C}"/>
+              <c16:uniqueId val="{00000000-A983-430D-9A31-5EE27872BEA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3854,11 +3824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="536526960"/>
-        <c:axId val="536527312"/>
+        <c:axId val="1845274240"/>
+        <c:axId val="1845271424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="536526960"/>
+        <c:axId val="1845274240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,12 +3885,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536527312"/>
+        <c:crossAx val="1845271424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536527312"/>
+        <c:axId val="1845271424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3977,7 +3947,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536526960"/>
+        <c:crossAx val="1845274240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4104,6 +4074,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>水位泄量曲线!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>水位</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4130,10 +4111,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>水位泄量曲线!$F$2:$F$12</c:f>
+              <c:f>水位泄量曲线!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4165,6 +4146,9 @@
                   <c:v>9863.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>13851.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -4172,10 +4156,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>水位泄量曲线!$H$2:$H$12</c:f>
+              <c:f>水位泄量曲线!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1598</c:v>
                 </c:pt>
@@ -4207,6 +4191,9 @@
                   <c:v>1619</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1622.78</c:v>
                 </c:pt>
               </c:numCache>
@@ -4215,7 +4202,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F806-4FD1-B21C-6F98CFA994EB}"/>
+              <c16:uniqueId val="{00000000-F581-4345-B22F-CA2F4D71AB2E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4227,11 +4214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="536541392"/>
-        <c:axId val="536538224"/>
+        <c:axId val="1845299936"/>
+        <c:axId val="1845303456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="536541392"/>
+        <c:axId val="1845299936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4288,12 +4275,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536538224"/>
+        <c:crossAx val="1845303456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536538224"/>
+        <c:axId val="1845303456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4350,7 +4337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536541392"/>
+        <c:crossAx val="1845299936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4362,6 +4349,1774 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>大华桥</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>水位泄量曲线!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>886.37199999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2507.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4605.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7090.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9909.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>水位泄量曲线!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1477</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1477.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0473-4064-8978-1B54DB73EBE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="737182784"/>
+        <c:axId val="737266912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="737182784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737266912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="737266912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737182784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>苗尾</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>水位泄量曲线!$C$34:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.81250000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>729.20386809862737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1339.6330464790542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2062.5000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2882.4313772458231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3789.0544458677309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4774.754319186879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5833.6309447890162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6960.9375000000027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8152.7470926216092</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10717.064371832437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13505.044630387194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>水位泄量曲线!$E$34:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1414.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A4F-49FC-8549-F4C7A5C83B6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1845280576"/>
+        <c:axId val="1845278464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1845280576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1845278464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1845278464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1845280576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>黄登</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>入库流量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4674</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4473</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3468</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEE4-4459-B012-B0B2B7BCA08F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>出库流量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.684632591524064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>246.15597566027921</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>455.17285465728185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>649.3789828959334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>852.80390259346871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1072.198358447589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1294.7468135804515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1497.7465417800881</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1678.8455536277456</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1829.653534585374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1941.3157765452538</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014.2211237594161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2040.6016555959695</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023.3261644714692</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1998.9660334106347</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1964.6404100950931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1902.3577956690697</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1825.5962123660961</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1742.605948900394</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1658.8479157703662</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1578.1354926859335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEE4-4459-B012-B0B2B7BCA08F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="624668336"/>
+        <c:axId val="624668688"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>水位</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1598.3678254915558</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1599.0125416100141</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1599.6982262635013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600.3927898664335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1601.0756238618919</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1601.7411828575171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1602.3536914770871</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1602.906974337551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1603.3936980153062</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1603.772977722185</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1604.0290699805876</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1604.1599424126769</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1604.1554400285752</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1604.0770650577765</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1604.0386839353569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1603.8950750033159</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1603.68859332278</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1603.4541991438516</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1603.2119645592045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1602.9731716964575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEE4-4459-B012-B0B2B7BCA08F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="624684176"/>
+        <c:axId val="624683120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="624668336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624668688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624668688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624668336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="624683120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624684176"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="624684176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="624683120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4639,6 +6394,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7720,6 +9595,1554 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7890,6 +11313,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73609378-3B83-3973-C269-06507E38806C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7897,23 +11356,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>512445</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>573405</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
+        <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C365C607-9DF3-D548-A759-926BAAC21BE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4FE904-A846-A8AC-EF78-53E11205586A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7933,23 +11392,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>700088</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6">
+        <xdr:cNvPr id="9" name="图表 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0C7D23-1205-85FF-63C4-854EE093DDA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E555D3A7-B075-5D0E-9EDE-8C32BDC567D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7967,13 +11426,90 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E40143-5254-5B0A-A6AE-802821155E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DA99C6-A45C-E076-FD7E-14CF5015BA7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8011,7 +11547,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8117,7 +11653,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8259,7 +11795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8269,16 +11805,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573F8621-2062-4EF6-A43E-AAC72C9883A1}">
   <dimension ref="A4:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -8301,7 +11837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -8324,7 +11860,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -8347,7 +11883,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -8381,51 +11917,51 @@
   <dimension ref="A1:H449"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H48" sqref="C1:H48"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
         <v>9.6584216725558295E-2</v>
       </c>
@@ -8445,7 +11981,7 @@
         <v>57.365087703936297</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>0.47938751472320101</v>
       </c>
@@ -8465,7 +12001,7 @@
         <v>232.177081205185</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>0.83274440518256598</v>
       </c>
@@ -8485,7 +12021,7 @@
         <v>460.19272490246999</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>1.1713780918727901</v>
       </c>
@@ -8505,7 +12041,7 @@
         <v>1015.03079123252</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
         <v>1.56890459363957</v>
       </c>
@@ -8525,7 +12061,7 @@
         <v>1516.66520736654</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>1.90753828032979</v>
       </c>
@@ -8545,7 +12081,7 @@
         <v>2253.9157886544199</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>2.2093639575971702</v>
       </c>
@@ -8565,7 +12101,7 @@
         <v>3249.5840994658902</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>2.5259128386336802</v>
       </c>
@@ -8585,7 +12121,7 @@
         <v>4002.0357236669201</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>2.7467608951707798</v>
       </c>
@@ -8605,7 +12141,7 @@
         <v>5001.5042952066797</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>3.3430506478209598</v>
       </c>
@@ -8625,7 +12161,7 @@
         <v>5993.3723452898603</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>3.7479387514723199</v>
       </c>
@@ -8645,7 +12181,7 @@
         <v>7004.2416990144802</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>3.9982332155477001</v>
       </c>
@@ -8665,7 +12201,7 @@
         <v>8007.5105312825299</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>4.1601884570082399</v>
       </c>
@@ -8685,7 +12221,7 @@
         <v>8995.5783206374199</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>4.3663133097762001</v>
       </c>
@@ -8705,7 +12241,7 @@
         <v>10006.447674362</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
         <v>4.6755005889281502</v>
       </c>
@@ -8725,7 +12261,7 @@
         <v>11009.71650663</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
         <v>4.9110718492343901</v>
       </c>
@@ -8745,7 +12281,7 @@
         <v>11997.7842959849</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <v>5.14664310954063</v>
       </c>
@@ -8765,7 +12301,7 @@
         <v>13008.6536497096</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>5.5736160188456996</v>
       </c>
@@ -8785,7 +12321,7 @@
         <v>13426.6823298212</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
         <v>6.0300353356890399</v>
       </c>
@@ -8805,7 +12341,7 @@
         <v>13715.5021451711</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>6.3981154299175396</v>
       </c>
@@ -8825,7 +12361,7 @@
         <v>13806.70840265</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
         <v>7.2815076560659504</v>
       </c>
@@ -8845,7 +12381,7 @@
         <v>13730.703188084301</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="3">
         <v>7.85571260306242</v>
       </c>
@@ -8865,7 +12401,7 @@
         <v>13563.4917160396</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="3">
         <v>7.5465253239104797</v>
       </c>
@@ -8885,7 +12421,7 @@
         <v>13312.674507972601</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="3">
         <v>8.2974087161366299</v>
       </c>
@@ -8905,7 +12441,7 @@
         <v>13008.6536497096</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>8.8127208480565393</v>
       </c>
@@ -8925,7 +12461,7 @@
         <v>12499.418712119001</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
         <v>9.1808009422850407</v>
       </c>
@@ -8945,7 +12481,7 @@
         <v>12001.5845567132</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
         <v>9.4458186101295603</v>
       </c>
@@ -8965,7 +12501,7 @@
         <v>11488.549358394301</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>9.8580683156654807</v>
       </c>
@@ -8985,7 +12521,7 @@
         <v>11013.5167673583</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>10.240871613663099</v>
       </c>
@@ -9005,7 +12541,7 @@
         <v>10485.2805261263</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E32" s="3">
         <v>13.052726861280799</v>
       </c>
@@ -9019,7 +12555,7 @@
         <v>10006.447674362</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="3">
         <v>13.3355962887531</v>
       </c>
@@ -9033,7 +12569,7 @@
         <v>9459.2101294885597</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="3">
         <v>13.7068624123104</v>
       </c>
@@ -9047,7 +12583,7 @@
         <v>8995.5783206374199</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G35" s="3">
         <v>9.9796339490465904</v>
       </c>
@@ -9055,7 +12591,7 @@
         <v>8463.5418186770894</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G36" s="3">
         <v>10.8140667703326</v>
       </c>
@@ -9063,7 +12599,7 @@
         <v>7756.6933232155197</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G37" s="3">
         <v>11.6055508434643</v>
       </c>
@@ -9071,7 +12607,7 @@
         <v>7133.4505637762804</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G38" s="3">
         <v>12.4031704520466</v>
       </c>
@@ -9079,7 +12615,7 @@
         <v>6517.8083257936096</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G39" s="3">
         <v>13.1087570288694</v>
       </c>
@@ -9087,7 +12623,7 @@
         <v>5989.5720845615697</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G40" s="3">
         <v>13.924783243803599</v>
       </c>
@@ -9095,7 +12631,7 @@
         <v>5392.93115022035</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G41" s="3">
         <v>14.452439292557999</v>
       </c>
@@ -9103,7 +12639,7 @@
         <v>5005.3045559349703</v>
       </c>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G42" s="3">
         <v>15.894290123456701</v>
       </c>
@@ -9111,7 +12647,7 @@
         <v>3994.4352022103499</v>
       </c>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G43" s="3">
         <v>17.483393805170699</v>
       </c>
@@ -9119,7 +12655,7 @@
         <v>2983.5658484857299</v>
       </c>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G44" s="3">
         <v>19.0909040932365</v>
       </c>
@@ -9127,7 +12663,7 @@
         <v>1984.09727694597</v>
       </c>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G45" s="3">
         <v>20.489806175980899</v>
       </c>
@@ -9135,7 +12671,7 @@
         <v>1357.0542567784501</v>
       </c>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G46" s="3">
         <v>21.361052209970701</v>
       </c>
@@ -9143,7 +12679,7 @@
         <v>999.82974831937202</v>
       </c>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G47" s="3">
         <v>21.7905396915151</v>
       </c>
@@ -9151,7 +12687,7 @@
         <v>885.82192647073305</v>
       </c>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G48" s="3">
         <v>22.2077561021581</v>
       </c>
@@ -9159,353 +12695,353 @@
         <v>809.81671190497195</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
     </row>
-    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
     </row>
-    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
     </row>
-    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
     </row>
-    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
     </row>
-    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
     </row>
-    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
     </row>
-    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
     </row>
-    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
     </row>
-    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
     </row>
-    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
     </row>
-    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
     </row>
-    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
     </row>
-    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
     </row>
-    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
     </row>
-    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
     </row>
-    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
     </row>
-    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
     </row>
-    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
     </row>
-    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
     </row>
-    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
     </row>
-    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
     </row>
-    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
     </row>
-    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
     </row>
-    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
     </row>
-    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
     </row>
-    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
     </row>
-    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
     </row>
-    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
     </row>
-    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
     </row>
-    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
     </row>
-    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
     </row>
-    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
     </row>
-    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
     </row>
-    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
     </row>
-    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
     </row>
-    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
     </row>
-    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
     </row>
-    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
     </row>
-    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
     </row>
-    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
     </row>
-    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
     </row>
-    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
     </row>
-    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
     </row>
-    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
     </row>
-    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
     </row>
-    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
     </row>
-    <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
     </row>
-    <row r="402" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
     </row>
-    <row r="403" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
     </row>
-    <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
     </row>
-    <row r="405" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
     </row>
-    <row r="406" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
     </row>
-    <row r="407" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
     </row>
-    <row r="408" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
     </row>
-    <row r="409" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
     </row>
-    <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
     </row>
-    <row r="411" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
     </row>
-    <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
     </row>
-    <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
     </row>
-    <row r="414" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
     </row>
-    <row r="415" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D415" s="4"/>
     </row>
-    <row r="416" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D416" s="4"/>
     </row>
-    <row r="417" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D417" s="4"/>
     </row>
-    <row r="418" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D418" s="4"/>
     </row>
-    <row r="419" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="419" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D419" s="4"/>
     </row>
-    <row r="420" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D420" s="4"/>
     </row>
-    <row r="421" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="421" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D421" s="4"/>
     </row>
-    <row r="422" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D422" s="4"/>
     </row>
-    <row r="423" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="423" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D423" s="4"/>
     </row>
-    <row r="424" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D424" s="4"/>
     </row>
-    <row r="425" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="425" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D425" s="4"/>
     </row>
-    <row r="426" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D426" s="4"/>
     </row>
-    <row r="427" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="427" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D427" s="4"/>
     </row>
-    <row r="428" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="428" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D428" s="4"/>
     </row>
-    <row r="429" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="429" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D429" s="4"/>
     </row>
-    <row r="430" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="430" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D430" s="4"/>
     </row>
-    <row r="431" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D431" s="4"/>
     </row>
-    <row r="432" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="432" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D432" s="4"/>
     </row>
-    <row r="433" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D433" s="4"/>
     </row>
-    <row r="434" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D434" s="4"/>
     </row>
-    <row r="435" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D435" s="4"/>
     </row>
-    <row r="436" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D437" s="4"/>
     </row>
-    <row r="438" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D438" s="4"/>
     </row>
-    <row r="439" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D439" s="4"/>
     </row>
-    <row r="440" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D440" s="4"/>
     </row>
-    <row r="441" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="441" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D441" s="4"/>
     </row>
-    <row r="442" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="442" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D442" s="4"/>
     </row>
-    <row r="443" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D443" s="4"/>
     </row>
-    <row r="444" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="444" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D444" s="4"/>
     </row>
-    <row r="445" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D445" s="4"/>
     </row>
-    <row r="446" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="446" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D446" s="4"/>
     </row>
-    <row r="447" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="447" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D447" s="4"/>
     </row>
-    <row r="448" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D448" s="4"/>
     </row>
-    <row r="449" spans="4:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D449" s="4"/>
     </row>
   </sheetData>
@@ -9524,13 +13060,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC8329B-9514-454B-BD4F-6E568EC4A17E}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30:O47"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -9544,479 +13080,411 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L2">
-        <v>64</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="3">
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1406</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.08</v>
       </c>
       <c r="B3">
         <v>1500</v>
       </c>
-      <c r="L3">
-        <v>98</v>
+      <c r="L3" s="3">
+        <v>48.77</v>
       </c>
       <c r="M3">
         <v>1410</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.2</v>
       </c>
       <c r="B4">
         <v>1508</v>
       </c>
-      <c r="L4">
-        <v>293</v>
+      <c r="L4" s="3">
+        <v>280.93</v>
       </c>
       <c r="M4">
         <v>1415</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.5</v>
       </c>
       <c r="B5">
         <v>1520</v>
       </c>
-      <c r="L5">
-        <v>656</v>
+      <c r="L5" s="3">
+        <v>634.35</v>
       </c>
       <c r="M5">
         <v>1420</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.9</v>
       </c>
       <c r="B6">
         <v>1531</v>
       </c>
-      <c r="L6">
-        <v>1173</v>
+      <c r="L6" s="3">
+        <v>1137.67</v>
       </c>
       <c r="M6">
         <v>1425</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.4</v>
       </c>
       <c r="B7">
         <v>1540</v>
       </c>
-      <c r="L7">
-        <v>1943</v>
+      <c r="L7" s="3">
+        <v>1908.36</v>
       </c>
       <c r="M7">
         <v>1430</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.1</v>
       </c>
       <c r="B8">
         <v>1551</v>
       </c>
-      <c r="L8">
-        <v>3010</v>
+      <c r="L8" s="3">
+        <v>2929.91</v>
       </c>
       <c r="M8">
         <v>1435</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.7</v>
       </c>
       <c r="B9">
         <v>1567</v>
       </c>
-      <c r="L9">
-        <v>4397</v>
+      <c r="L9" s="3">
+        <v>4319.9399999999996</v>
       </c>
       <c r="M9">
         <v>1440</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
         <v>1577</v>
       </c>
-      <c r="L10">
-        <v>6208</v>
+      <c r="L10" s="3">
+        <v>6151.28</v>
       </c>
       <c r="M10">
         <v>1445</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.5</v>
       </c>
       <c r="B11">
         <v>1592</v>
       </c>
-      <c r="L11">
-        <v>8333</v>
+      <c r="L11" s="3">
+        <v>8285.06</v>
       </c>
       <c r="M11">
         <v>1450</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>1604</v>
       </c>
-      <c r="L12">
-        <v>10813</v>
+      <c r="L12" s="3">
+        <v>10743.74</v>
       </c>
       <c r="M12">
         <v>1455</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.5</v>
       </c>
       <c r="B13">
         <v>1613</v>
       </c>
-      <c r="L13">
-        <v>13716</v>
+      <c r="L13" s="3">
+        <v>13677.17</v>
       </c>
       <c r="M13">
         <v>1460</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14">
         <v>1622</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>16940</v>
       </c>
       <c r="M14">
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17.5</v>
       </c>
       <c r="B15">
         <v>1630</v>
       </c>
-      <c r="L15">
-        <v>20495</v>
+      <c r="L15" s="3">
+        <v>20457.560000000001</v>
       </c>
       <c r="M15">
         <v>1470</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
       <c r="B16">
         <v>1637</v>
       </c>
-      <c r="L16">
-        <v>22095</v>
+      <c r="L16" s="3">
+        <v>22100</v>
       </c>
       <c r="M16">
         <v>1472</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22.5</v>
       </c>
       <c r="B17">
         <v>1643</v>
       </c>
-      <c r="L17">
-        <v>22933</v>
+      <c r="L17" s="3">
+        <v>22867.1</v>
       </c>
       <c r="M17">
         <v>1473</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
       <c r="B18">
         <v>1650</v>
       </c>
-      <c r="L18">
-        <v>24465</v>
+      <c r="L18" s="3">
+        <v>24418.05</v>
       </c>
       <c r="M18">
         <v>1475</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="L19">
-        <v>25353</v>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L19" s="3">
+        <v>25363.79</v>
       </c>
       <c r="M19">
         <v>1476</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="L20">
-        <v>27918</v>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L20" s="3">
+        <v>27934.6</v>
       </c>
       <c r="M20">
         <v>1479</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="L21">
-        <v>28815</v>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L21" s="3">
+        <v>28854.22</v>
       </c>
       <c r="M21">
         <v>1480</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="R23">
-        <f>TREND(A14:A15,B14:B15,1622.78)</f>
-        <v>15.243749999999977</v>
-      </c>
-      <c r="U23" s="6">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U24" s="6">
-        <v>8.9583333333333144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U25" s="6">
-        <v>9.1666666666666288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U26" s="6">
-        <v>9.375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U27" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U28" s="6">
-        <v>10.833333333333314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U29" s="6">
-        <v>11.666666666666629</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M30">
+      <c r="P21">
         <f>TREND(L19:L20,M19:M20,1478)</f>
-        <v>27063</v>
-      </c>
-      <c r="N30">
-        <v>15005.599999999977</v>
-      </c>
-      <c r="O30" s="6">
-        <f>N30*0.0001</f>
-        <v>1.5005599999999977</v>
-      </c>
-      <c r="U30" s="6">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="N31">
-        <v>15650.399999999907</v>
-      </c>
-      <c r="O31" s="6">
-        <f>N31*0.0001</f>
-        <v>1.5650399999999907</v>
-      </c>
-      <c r="U31" s="6">
-        <v>13.333333333333314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="N32">
-        <v>16295.199999999953</v>
-      </c>
-      <c r="O32" s="6">
-        <f>N32*0.0001</f>
-        <v>1.6295199999999954</v>
-      </c>
-      <c r="U32" s="6">
-        <v>14.48</v>
-      </c>
-    </row>
-    <row r="33" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N33">
-        <v>16940</v>
-      </c>
-      <c r="O33" s="6">
-        <f>N33*0.0001</f>
-        <v>1.6940000000000002</v>
-      </c>
-      <c r="U33" s="6">
-        <v>15.243749999999977</v>
-      </c>
-    </row>
-    <row r="34" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N34">
-        <v>17651</v>
-      </c>
-      <c r="O34" s="6">
-        <f>N34*0.0001</f>
-        <v>1.7651000000000001</v>
+        <v>27077.66333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1275</v>
+      </c>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N30" s="6"/>
+      <c r="P30">
+        <v>0.08</v>
+      </c>
+      <c r="Q30">
+        <v>1287</v>
+      </c>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N31" s="6"/>
+      <c r="P31">
+        <v>0.25</v>
+      </c>
+      <c r="Q31">
+        <v>1300</v>
+      </c>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N32" s="6"/>
+      <c r="P32">
+        <v>0.66</v>
+      </c>
+      <c r="Q32">
+        <v>1320</v>
+      </c>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O33" s="6"/>
+      <c r="P33">
+        <v>1.3</v>
+      </c>
+      <c r="Q33">
+        <v>1340</v>
+      </c>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O34" s="6"/>
+      <c r="P34">
+        <v>2.1</v>
+      </c>
+      <c r="Q34">
+        <v>1360</v>
       </c>
       <c r="U34" s="3"/>
     </row>
-    <row r="35" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N35">
-        <v>18362</v>
-      </c>
-      <c r="O35" s="6">
-        <f t="shared" ref="O35" si="0">N35*0.0001</f>
-        <v>1.8362000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N36">
-        <v>19073</v>
-      </c>
-      <c r="O36" s="6">
-        <f t="shared" ref="O36:O47" si="1">N36*0.0001</f>
-        <v>1.9073</v>
-      </c>
-    </row>
-    <row r="37" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N37">
-        <v>19784</v>
-      </c>
-      <c r="O37" s="6">
-        <f t="shared" si="1"/>
-        <v>1.9784000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N38">
-        <v>20495</v>
-      </c>
-      <c r="O38" s="6">
-        <f t="shared" si="1"/>
-        <v>2.0495000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N39">
-        <v>21295</v>
-      </c>
-      <c r="O39" s="6">
-        <f t="shared" si="1"/>
-        <v>2.1295000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N40">
-        <v>22095</v>
-      </c>
-      <c r="O40" s="6">
-        <f t="shared" si="1"/>
-        <v>2.2095000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N41">
-        <v>22933</v>
-      </c>
-      <c r="O41" s="6">
-        <f t="shared" si="1"/>
-        <v>2.2932999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N42">
-        <v>23699</v>
-      </c>
-      <c r="O42" s="6">
-        <f t="shared" si="1"/>
-        <v>2.3698999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N43">
-        <v>24465</v>
-      </c>
-      <c r="O43" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4464999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N44">
-        <v>26208</v>
-      </c>
-      <c r="O44" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6208</v>
-      </c>
-    </row>
-    <row r="45" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N45">
-        <v>27063</v>
-      </c>
-      <c r="O45" s="6">
-        <f t="shared" si="1"/>
-        <v>2.7063000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N46">
-        <v>27918</v>
-      </c>
-      <c r="O46" s="6">
-        <f t="shared" si="1"/>
-        <v>2.7918000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="14:21" x14ac:dyDescent="0.2">
-      <c r="N47">
-        <v>28815</v>
-      </c>
-      <c r="O47" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8815</v>
-      </c>
+    <row r="35" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O35" s="6"/>
+      <c r="P35">
+        <v>3.08</v>
+      </c>
+      <c r="Q35">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="36" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O36" s="6"/>
+      <c r="P36">
+        <v>5.01</v>
+      </c>
+      <c r="Q36">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="37" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O37" s="6"/>
+      <c r="P37">
+        <v>6.6</v>
+      </c>
+      <c r="Q37">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="38" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O38" s="6"/>
+      <c r="P38">
+        <v>7.2</v>
+      </c>
+      <c r="Q38">
+        <v>1414.8</v>
+      </c>
+    </row>
+    <row r="39" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O47" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10027,514 +13495,865 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C362A9B-2501-444D-955A-6C3A1B5474D9}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="1" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.21</v>
+      </c>
+      <c r="C2">
+        <v>1472</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="H2">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>886.37199999999996</v>
+      </c>
+      <c r="B3">
+        <v>2.29</v>
+      </c>
+      <c r="C3">
+        <v>1473</v>
+      </c>
+      <c r="F3">
+        <v>357.4970173783305</v>
+      </c>
+      <c r="G3" s="6">
+        <v>8.9583333333333144</v>
+      </c>
+      <c r="H3">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2507.04</v>
+      </c>
+      <c r="B4">
+        <v>2.36</v>
+      </c>
+      <c r="C4">
+        <v>1474</v>
+      </c>
+      <c r="F4">
+        <v>632.49384016175645</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9.1666666666666288</v>
+      </c>
+      <c r="H4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4605.7299999999996</v>
+      </c>
+      <c r="B5">
+        <v>2.44</v>
+      </c>
+      <c r="C5">
+        <v>1475</v>
+      </c>
+      <c r="F5">
+        <v>930.08417619616307</v>
+      </c>
+      <c r="G5" s="6">
+        <v>9.375</v>
+      </c>
+      <c r="H5">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>7090.98</v>
+      </c>
+      <c r="B6">
+        <v>2.54</v>
+      </c>
+      <c r="C6">
+        <v>1476</v>
+      </c>
+      <c r="F6">
+        <v>1974.8162245973531</v>
+      </c>
+      <c r="G6" s="6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>9909.94</v>
+      </c>
+      <c r="B7">
+        <v>2.62</v>
+      </c>
+      <c r="C7">
+        <v>1477</v>
+      </c>
+      <c r="F7">
+        <v>3226.3390375454192</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10.833333333333314</v>
+      </c>
+      <c r="H7">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>11433</v>
+      </c>
+      <c r="B8">
+        <v>2.67</v>
+      </c>
+      <c r="C8">
+        <v>1477.5</v>
+      </c>
+      <c r="F8">
+        <v>4658.0989592753749</v>
+      </c>
+      <c r="G8" s="6">
+        <v>11.666666666666629</v>
+      </c>
+      <c r="H8">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>13500</v>
+      </c>
+      <c r="B9">
+        <v>2.71</v>
+      </c>
+      <c r="C9">
+        <v>1478</v>
+      </c>
+      <c r="F9">
+        <v>6250.6401316500014</v>
+      </c>
+      <c r="G9" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="H9">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+      <c r="F10">
+        <v>7989.4835850000536</v>
+      </c>
+      <c r="G10" s="6">
+        <v>13.333333333333314</v>
+      </c>
+      <c r="H10">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+      <c r="F11">
+        <v>9863.4</v>
+      </c>
+      <c r="G11" s="6">
+        <v>14.48</v>
+      </c>
+      <c r="H11">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+      <c r="F12">
+        <v>11800</v>
+      </c>
+      <c r="G12" s="6">
+        <v>14.72</v>
+      </c>
+      <c r="H12">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="F13">
+        <v>13851.5</v>
+      </c>
+      <c r="G13" s="6">
+        <v>15.243749999999977</v>
+      </c>
+      <c r="H13">
+        <v>1622.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>5.01</v>
+      </c>
+      <c r="E34">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>257.81250000000011</v>
+      </c>
+      <c r="D35">
+        <v>5.17</v>
+      </c>
+      <c r="E35">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>729.20386809862737</v>
+      </c>
+      <c r="D36">
+        <v>5.33</v>
+      </c>
+      <c r="E36">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1339.6330464790542</v>
+      </c>
+      <c r="D37">
+        <v>5.49</v>
+      </c>
+      <c r="E37">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2062.5000000000005</v>
+      </c>
+      <c r="D38">
+        <v>5.65</v>
+      </c>
+      <c r="E38">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>2882.4313772458231</v>
+      </c>
+      <c r="D39">
+        <v>5.81</v>
+      </c>
+      <c r="E39">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>3789.0544458677309</v>
+      </c>
+      <c r="D40">
+        <v>5.96</v>
+      </c>
+      <c r="E40">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>4774.754319186879</v>
+      </c>
+      <c r="D41">
+        <v>6.12</v>
+      </c>
+      <c r="E41">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>5833.6309447890162</v>
+      </c>
+      <c r="D42">
+        <v>6.28</v>
+      </c>
+      <c r="E42">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>6960.9375000000027</v>
+      </c>
+      <c r="D43">
+        <v>6.44</v>
+      </c>
+      <c r="E43">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>8152.7470926216092</v>
+      </c>
+      <c r="D44">
+        <v>6.6</v>
+      </c>
+      <c r="E44">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>10717.064371832437</v>
+      </c>
+      <c r="D45">
+        <v>6.78</v>
+      </c>
+      <c r="E45">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>13505.044630387194</v>
+      </c>
+      <c r="D46">
+        <v>6.95</v>
+      </c>
+      <c r="E46">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>16500</v>
+      </c>
+      <c r="D47">
+        <v>7.22</v>
+      </c>
+      <c r="E47">
+        <v>1414.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30BFB10-A34E-4471-87B5-35480C0217FC}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>215</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>379</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>599</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>992</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1503</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1992</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2600</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3020</v>
+      </c>
+      <c r="C10">
+        <v>65.684632591524064</v>
+      </c>
+      <c r="D10">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4007</v>
+      </c>
+      <c r="C11">
+        <v>246.15597566027921</v>
+      </c>
+      <c r="D11">
+        <v>1598.3678254915558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4455</v>
+      </c>
+      <c r="C12">
+        <v>455.17285465728185</v>
+      </c>
+      <c r="D12">
+        <v>1599.0125416100141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4701</v>
+      </c>
+      <c r="C13">
+        <v>649.3789828959334</v>
+      </c>
+      <c r="D13">
+        <v>1599.6982262635013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4829</v>
+      </c>
+      <c r="C14">
+        <v>852.80390259346871</v>
+      </c>
+      <c r="D14">
+        <v>1600.3927898664335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4893</v>
+      </c>
+      <c r="C15">
+        <v>1072.198358447589</v>
+      </c>
+      <c r="D15">
+        <v>1601.0756238618919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4811</v>
+      </c>
+      <c r="C16">
+        <v>1294.7468135804515</v>
+      </c>
+      <c r="D16">
+        <v>1601.7411828575171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>4674</v>
+      </c>
+      <c r="C17">
+        <v>1497.7465417800881</v>
+      </c>
+      <c r="D17">
+        <v>1602.3536914770871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>4473</v>
+      </c>
+      <c r="C18">
+        <v>1678.8455536277456</v>
+      </c>
+      <c r="D18">
+        <v>1602.906974337551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>4007</v>
+      </c>
+      <c r="C19">
+        <v>1829.653534585374</v>
+      </c>
+      <c r="D19">
+        <v>1603.3936980153062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3468</v>
+      </c>
+      <c r="C20">
+        <v>1941.3157765452538</v>
+      </c>
+      <c r="D20">
+        <v>1603.772977722185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3020</v>
+      </c>
+      <c r="C21">
+        <v>2014.2211237594161</v>
+      </c>
+      <c r="D21">
+        <v>1604.0290699805876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2006</v>
+      </c>
+      <c r="C22">
+        <v>2040.6016555959695</v>
+      </c>
+      <c r="D22">
+        <v>1604.1599424126769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1421</v>
+      </c>
+      <c r="C23">
+        <v>2023.3261644714692</v>
+      </c>
+      <c r="D23">
+        <v>1604.1554400285752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1704</v>
+      </c>
+      <c r="C24">
+        <v>1998.9660334106347</v>
+      </c>
+      <c r="D24">
+        <v>1604.0770650577765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1065</v>
+      </c>
+      <c r="C25">
+        <v>1964.6404100950931</v>
+      </c>
+      <c r="D25">
+        <v>1604.0386839353569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B26">
+        <v>717</v>
+      </c>
+      <c r="C26">
+        <v>1902.3577956690697</v>
+      </c>
+      <c r="D26">
+        <v>1603.8950750033159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>142.63</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.5005599999999977</v>
-      </c>
-      <c r="D2">
-        <v>1462</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="H2">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>403.41</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.5650399999999907</v>
-      </c>
-      <c r="D3">
-        <v>1463</v>
-      </c>
-      <c r="F3">
-        <v>357.4970173783305</v>
-      </c>
-      <c r="G3" s="6">
-        <v>8.9583333333333144</v>
-      </c>
-      <c r="H3">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>741.12</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.6295199999999954</v>
-      </c>
-      <c r="D4">
-        <v>1464</v>
-      </c>
-      <c r="F4">
-        <v>632.49384016175645</v>
-      </c>
-      <c r="G4" s="6">
-        <v>9.1666666666666288</v>
-      </c>
-      <c r="H4">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1141.03</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1.6940000000000002</v>
-      </c>
-      <c r="D5">
-        <v>1465</v>
-      </c>
-      <c r="F5">
-        <v>930.08417619616307</v>
-      </c>
-      <c r="G5" s="6">
-        <v>9.375</v>
-      </c>
-      <c r="H5">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>1594.63</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.7651000000000001</v>
-      </c>
-      <c r="D6">
-        <v>1466</v>
-      </c>
-      <c r="F6">
-        <v>1974.8162245973531</v>
-      </c>
-      <c r="G6" s="6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>2096.1999999999998</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.9298299999999999</v>
-      </c>
-      <c r="D7">
-        <v>1467</v>
-      </c>
-      <c r="F7">
-        <v>3226.3390375454192</v>
-      </c>
-      <c r="G7" s="6">
-        <v>10.833333333333314</v>
-      </c>
-      <c r="H7">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>2641.51</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.9073</v>
-      </c>
-      <c r="D8">
-        <v>1468</v>
-      </c>
-      <c r="F8">
-        <v>4658.0989592753749</v>
-      </c>
-      <c r="G8" s="6">
-        <v>11.666666666666629</v>
-      </c>
-      <c r="H8">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>3227.31</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1.9784000000000002</v>
-      </c>
-      <c r="D9">
-        <v>1469</v>
-      </c>
-      <c r="F9">
-        <v>6250.6401316500014</v>
-      </c>
-      <c r="G9" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="H9">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>3850.96</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2.0495000000000001</v>
-      </c>
-      <c r="D10">
-        <v>1470</v>
-      </c>
-      <c r="F10">
-        <v>7989.4835850000536</v>
-      </c>
-      <c r="G10" s="6">
-        <v>13.333333333333314</v>
-      </c>
-      <c r="H10">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>4510.3</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.1295000000000002</v>
-      </c>
-      <c r="D11">
-        <v>1471</v>
-      </c>
-      <c r="F11">
-        <v>9863.4</v>
-      </c>
-      <c r="G11" s="6">
-        <v>14.48</v>
-      </c>
-      <c r="H11">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>5203.49</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.2095000000000002</v>
-      </c>
-      <c r="D12">
-        <v>1472</v>
-      </c>
-      <c r="F12">
-        <v>13851.5</v>
-      </c>
-      <c r="G12" s="6">
-        <v>15.243749999999977</v>
-      </c>
-      <c r="H12">
-        <v>1622.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>5928.94</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2.2932999999999999</v>
-      </c>
-      <c r="D13">
-        <v>1473</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>6685.29</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2.3698999999999999</v>
-      </c>
-      <c r="D14">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>7471.32</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2.4464999999999999</v>
-      </c>
-      <c r="D15">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>8285.9500000000007</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2.6208</v>
-      </c>
-      <c r="D16">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>9128.2000000000007</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2.7063000000000001</v>
-      </c>
-      <c r="D17">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>9997.2099999999991</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2.7918000000000003</v>
-      </c>
-      <c r="D18">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>10892.16</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2.8815</v>
-      </c>
-      <c r="D19">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M22">
-        <f>8636.4/21^(3/2)</f>
-        <v>89.743666058767801</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <f>M22*O22^(3/2)</f>
-        <v>89.743666058767801</v>
-      </c>
-      <c r="Q22">
-        <f>M24*O22^(1/2)</f>
-        <v>267.75335131956268</v>
-      </c>
-      <c r="R22">
-        <f t="shared" ref="R22:R31" si="0">SUM(P22:Q22)</f>
-        <v>357.4970173783305</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O23">
-        <v>2</v>
-      </c>
-      <c r="P23">
-        <f>M22*O23^(3/2)</f>
-        <v>253.83341935478285</v>
-      </c>
-      <c r="Q23">
-        <f>M24*O23^(1/2)</f>
-        <v>378.6604208069736</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>632.49384016175645</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M24">
-        <f>1227/21^(1/2)</f>
-        <v>267.75335131956268</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <f>M22*O24^(3/2)</f>
-        <v>466.32176781384123</v>
-      </c>
-      <c r="Q24">
-        <f>M24*O24^(1/2)</f>
-        <v>463.76240838232184</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>930.08417619616307</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O25">
-        <v>6</v>
-      </c>
-      <c r="P25">
-        <f>M22*O25^(3/2)</f>
-        <v>1318.9571369442635</v>
-      </c>
-      <c r="Q25">
-        <f>M24*O25^(1/2)</f>
-        <v>655.85908765308943</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
-        <v>1974.8162245973531</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O26">
-        <v>9</v>
-      </c>
-      <c r="P26">
-        <f>M22*O26^(3/2)</f>
-        <v>2423.0789835867308</v>
-      </c>
-      <c r="Q26">
-        <f>M24*O26^(1/2)</f>
-        <v>803.2600539586881</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="0"/>
-        <v>3226.3390375454192</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O27">
-        <v>12</v>
-      </c>
-      <c r="P27">
-        <f>M22*O27^(3/2)</f>
-        <v>3730.5741425107312</v>
-      </c>
-      <c r="Q27">
-        <f>M24*O27^(1/2)</f>
-        <v>927.52481676464367</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="0"/>
-        <v>4658.0989592753749</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O28">
-        <v>15</v>
-      </c>
-      <c r="P28">
-        <f>M22*O28^(3/2)</f>
-        <v>5213.6358610981115</v>
-      </c>
-      <c r="Q28">
-        <f>M24*O28^(1/2)</f>
-        <v>1037.0042705518899</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="0"/>
-        <v>6250.6401316500014</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O29">
-        <v>18</v>
-      </c>
-      <c r="P29">
-        <f>M22*O29^(3/2)</f>
-        <v>6853.5023225791329</v>
-      </c>
-      <c r="Q29">
-        <f>M24*O29^(1/2)</f>
-        <v>1135.9812624209208</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="0"/>
-        <v>7989.4835850000536</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O30">
-        <v>21</v>
-      </c>
-      <c r="P30">
-        <f>M22*O30^(3/2)</f>
-        <v>8636.4</v>
-      </c>
-      <c r="Q30">
-        <f>M24*O30^(1/2)</f>
-        <v>1227</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="0"/>
-        <v>9863.4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O31">
-        <v>24.78</v>
-      </c>
-      <c r="P31">
-        <v>11229.3</v>
-      </c>
-      <c r="Q31">
-        <v>2622.2</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="0"/>
-        <v>13851.5</v>
+      <c r="B27">
+        <v>480</v>
+      </c>
+      <c r="C27">
+        <v>1825.5962123660961</v>
+      </c>
+      <c r="D27">
+        <v>1603.68859332278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>352</v>
+      </c>
+      <c r="C28">
+        <v>1742.605948900394</v>
+      </c>
+      <c r="D28">
+        <v>1603.4541991438516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>288</v>
+      </c>
+      <c r="C29">
+        <v>1658.8479157703662</v>
+      </c>
+      <c r="D29">
+        <v>1603.2119645592045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>288</v>
+      </c>
+      <c r="C30">
+        <v>1578.1354926859335</v>
+      </c>
+      <c r="D30">
+        <v>1602.9731716964575</v>
       </c>
     </row>
   </sheetData>
